--- a/testData/LoginTestData.xlsx
+++ b/testData/LoginTestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\OrangeHRM_UI\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94FCA6-E1D2-4B09-B879-EC37A75D71AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C5CA0-F7A1-419F-82A0-4017448506BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>amit123</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,36 +471,48 @@
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testData/LoginTestData.xlsx
+++ b/testData/LoginTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\OrangeHRM_UI\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C5CA0-F7A1-419F-82A0-4017448506BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AFFE6C-B380-48A7-A02B-702B114DFA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -39,19 +39,10 @@
     <t>admin123</t>
   </si>
   <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>amit123</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
     <t>valid</t>
-  </si>
-  <si>
-    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -132,15 +123,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
@@ -490,29 +478,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testData/LoginTestData.xlsx
+++ b/testData/LoginTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\OrangeHRM_UI\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\WebApp_SauceLabs\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AFFE6C-B380-48A7-A02B-702B114DFA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC85789-6F32-4331-B7EA-2BB65C57FFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -33,49 +33,26 @@
     <t>password</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -103,37 +80,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,36 +404,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testData/LoginTestData.xlsx
+++ b/testData/LoginTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\WebApp_SauceLabs\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC85789-6F32-4331-B7EA-2BB65C57FFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830CF82F-3155-4941-970F-2BA087F8EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -404,13 +404,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
